--- a/product_history.xlsx
+++ b/product_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Product ID</t>
   </si>
@@ -29,6 +29,42 @@
   </si>
   <si>
     <t>Change</t>
+  </si>
+  <si>
+    <t>Price History</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:59.015036", "price": 36.95}, {"date": "2025-07-01T20:02:36.282528", "price": 10.81}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:59.441479", "price": 14.0}, {"date": "2025-07-01T20:02:36.989920", "price": 15.3}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:55.198867", "price": 14.7}, {"date": "2025-07-01T19:53:50.374812", "price": 14.7}, {"date": "2025-07-01T20:00:31.310811", "price": 14.7}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:55.737724", "price": 59.95}, {"date": "2025-07-01T19:53:50.816350", "price": 59.95}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:56.380038", "price": 69.95}, {"date": "2025-07-01T19:53:51.413324", "price": 69.95}, {"date": "2025-07-01T20:00:32.342521", "price": 69.95}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:58.226538", "price": 24.71}, {"date": "2025-07-01T19:53:53.869138", "price": 24.71}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:59.015036", "price": 36.95}, {"date": "2025-07-01T19:53:54.306503", "price": 36.95}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:59.015036", "price": 36.95}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:53.620518", "price": 59.95}, {"date": "2025-07-01T19:53:48.759366", "price": 9.95}, {"date": "2025-07-01T20:45:50.392060", "price": 59.95}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:59.015036", "price": 6.95}, {"date": "2025-07-01T19:53:54.306503", "price": 36.95}]</t>
+  </si>
+  <si>
+    <t>[{"date": "2025-07-01T19:51:53.620518", "price": 9.95}, {"date": "2025-07-01T19:53:48.759366", "price": 159.95}, {"date": "2025-07-01T20:54:29.058703", "price": 59.95}]</t>
   </si>
 </sst>
 </file>
@@ -390,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,127 +448,151 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45837.61312559028</v>
+        <v>45839.83514216435</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10.81</v>
       </c>
       <c r="E2">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4.81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>45837.61313706019</v>
+        <v>45839.83515034722</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>15.3</v>
       </c>
       <c r="E3">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>7.300000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>45837.61316626157</v>
+        <v>45839.83369572917</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="E4">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>2.699999999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>45837.61318121527</v>
+        <v>45839.82906037037</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>59.95</v>
       </c>
       <c r="E5">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>34.95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>45837.61319553241</v>
+        <v>45839.83370767361</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>69.95</v>
+      </c>
+      <c r="E6">
+        <v>66.95</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>45837.6132040162</v>
+        <v>45839.82909570602</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>24.71</v>
       </c>
       <c r="E7">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>21.71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>45837.61321929398</v>
+        <v>45839.82910077546</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>36.95</v>
       </c>
       <c r="E8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-33.05</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>11</v>
       </c>
@@ -548,22 +608,68 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>45837.76392358796</v>
+        <v>45839.86516657408</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>59.95</v>
       </c>
       <c r="E10">
-        <v>58.85</v>
+        <v>-60.05</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45839.82910077546</v>
+      </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>36.95</v>
+      </c>
+      <c r="E11">
+        <v>-33.05</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45839.87116966435</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>59.95</v>
+      </c>
+      <c r="E12">
+        <v>29.95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
